--- a/Benchtop-CBI-Pittsburgh/parts-list/parts-list-immersion-cuvette.xlsx
+++ b/Benchtop-CBI-Pittsburgh/parts-list/parts-list-immersion-cuvette.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop-CBI-Pittsburgh\parts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop-CBI-Pittsburgh\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAA3656-21F2-40C1-92F9-B56A18756329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B173F334-EC93-4A43-BDC3-B4D6C92EF31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12864" yWindow="7644" windowWidth="24948" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,18 +59,12 @@
     <t>Name</t>
   </si>
   <si>
-    <t>cuvette for small mesospim for 3dprinting with lens stop and windows.STL</t>
-  </si>
-  <si>
     <t>self-printed</t>
   </si>
   <si>
     <t>Cuvette frame</t>
   </si>
   <si>
-    <t>Can be printed suing Formlabs4 printer, suing Clear V5 Resin, with curing. CAD models in "...\Benchtop-CBI-Pittsburgh\CAD-models\ImmersionChambers\cuvette for small mesospim for 3dprinting with lens stop and windows.STL"</t>
-  </si>
-  <si>
     <t>varies</t>
   </si>
   <si>
@@ -192,6 +186,12 @@
   </si>
   <si>
     <t>38 x 75 x 1.0mm Adhesion Superfrost Plus (1 gross/144 slides)</t>
+  </si>
+  <si>
+    <t>cuvette-v1.STL</t>
+  </si>
+  <si>
+    <t>Can be printed suing Formlabs4 printer, suing Clear V5 Resin, with curing. CAD models in "...\custom_parts\ImmersionChambers\"</t>
   </si>
 </sst>
 </file>
@@ -521,7 +521,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,18 +556,18 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -580,18 +580,18 @@
         <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -604,21 +604,21 @@
         <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -631,21 +631,21 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
       </c>
       <c r="D5">
         <v>1</v>

--- a/Benchtop-CBI-Pittsburgh/parts-list/parts-list-immersion-cuvette.xlsx
+++ b/Benchtop-CBI-Pittsburgh/parts-list/parts-list-immersion-cuvette.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop-CBI-Pittsburgh\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B173F334-EC93-4A43-BDC3-B4D6C92EF31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7EB013-2F16-4A0F-928C-B2A01FDBA8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12864" yWindow="7644" windowWidth="24948" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19512" yWindow="6684" windowWidth="24948" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -191,7 +191,13 @@
     <t>cuvette-v1.STL</t>
   </si>
   <si>
-    <t>Can be printed suing Formlabs4 printer, suing Clear V5 Resin, with curing. CAD models in "...\custom_parts\ImmersionChambers\"</t>
+    <t>Sealant: 10.1 oz Cartridge, Clear, Silicone</t>
+  </si>
+  <si>
+    <t>Any similar consumer-grade silicone should do?</t>
+  </si>
+  <si>
+    <t>Can be printed using Formlabs4 printer, suing Clear V5 Resin, with curing. CAD models in "...\custom_parts\ImmersionChambers\"</t>
   </si>
 </sst>
 </file>
@@ -235,9 +241,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,7 +589,7 @@
         <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -600,7 +609,7 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F5" si="0">D3*E3</f>
+        <f t="shared" ref="F3:F6" si="0">D3*E3</f>
         <v>100</v>
       </c>
       <c r="G3" t="s">
@@ -656,6 +665,30 @@
       <c r="F5">
         <f t="shared" si="0"/>
         <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>66239195</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Benchtop-CBI-Pittsburgh/parts-list/parts-list-immersion-cuvette.xlsx
+++ b/Benchtop-CBI-Pittsburgh/parts-list/parts-list-immersion-cuvette.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop-CBI-Pittsburgh\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7EB013-2F16-4A0F-928C-B2A01FDBA8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74251AE3-39E3-498F-B524-34AEE61227E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19512" yWindow="6684" windowWidth="24948" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13692" yWindow="4224" windowWidth="24948" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t xml:space="preserve">Part # </t>
   </si>
@@ -199,12 +199,15 @@
   <si>
     <t>Can be printed using Formlabs4 printer, suing Clear V5 Resin, with curing. CAD models in "...\custom_parts\ImmersionChambers\"</t>
   </si>
+  <si>
+    <t>https://brainresearchlab.com/product/adhesion-superfrost-plus-microscope-slides/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +219,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -238,17 +249,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -530,7 +544,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,7 +629,7 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -666,6 +680,9 @@
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -692,6 +709,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{4394F167-51B7-4644-97D5-961D7C82B108}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>